--- a/comparison-scripts/pan1_supp_tables.xlsx
+++ b/comparison-scripts/pan1_supp_tables.xlsx
@@ -8,324 +8,38 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ppf6\Desktop\GitHub\FluCode\comparison-scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D8918D-33A1-4E53-A992-05D6AB6F2C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53FFFB3-CDF0-40ED-A5C3-FE518E33D8CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="supp table" sheetId="2" r:id="rId1"/>
-    <sheet name="perc ill" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="120">
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>HP01</t>
-  </si>
-  <si>
-    <t>HP02</t>
-  </si>
-  <si>
-    <t>HP03</t>
-  </si>
-  <si>
-    <t>HP04</t>
-  </si>
-  <si>
-    <t>HP05</t>
-  </si>
-  <si>
-    <t>HP06</t>
-  </si>
-  <si>
-    <t>HP07</t>
-  </si>
-  <si>
-    <t>HP08</t>
-  </si>
-  <si>
-    <t>HP09</t>
-  </si>
-  <si>
-    <t>HP10</t>
-  </si>
-  <si>
-    <t>HP11</t>
-  </si>
-  <si>
-    <t>HP12</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>COL</t>
   </si>
   <si>
-    <t>22.3% (17.4%, 27.2%)</t>
-  </si>
-  <si>
-    <t>15.8% (9.8%, 23%)</t>
-  </si>
-  <si>
-    <t>15.2% (9.1%, 22.1%)</t>
-  </si>
-  <si>
-    <t>13.6% (7.5%, 20.3%)</t>
-  </si>
-  <si>
-    <t>21.3% (16.4%, 26.3%)</t>
-  </si>
-  <si>
-    <t>20.6% (15.5%, 25.5%)</t>
-  </si>
-  <si>
-    <t>20.7% (15.6%, 25.8%)</t>
-  </si>
-  <si>
-    <t>13.5% (7.8%, 20.1%)</t>
-  </si>
-  <si>
-    <t>11.7% (6.1%, 18%)</t>
-  </si>
-  <si>
-    <t>19.8% (14.7%, 24.8%)</t>
-  </si>
-  <si>
-    <t>18.9% (13.7%, 23.9%)</t>
-  </si>
-  <si>
-    <t>NEU</t>
-  </si>
-  <si>
-    <t>27.5% (27.4%, 28%)</t>
-  </si>
-  <si>
-    <t>20.4% (19.8%, 22.1%)</t>
-  </si>
-  <si>
-    <t>27.5% (27.3%, 27.9%)</t>
-  </si>
-  <si>
-    <t>16.2% (15.8%, 17.5%)</t>
-  </si>
-  <si>
-    <t>7.2% (6.5%, 9.2%)</t>
-  </si>
-  <si>
-    <t>21.7% (21.7%, 21.8%)</t>
-  </si>
-  <si>
-    <t>19.1% (18.9%, 19.9%)</t>
-  </si>
-  <si>
-    <t>25.7% (25.7%, 25.9%)</t>
-  </si>
-  <si>
-    <t>8% (7.3%, 10%)</t>
-  </si>
-  <si>
-    <t>1.4% (1.2%, 2.3%)</t>
-  </si>
-  <si>
-    <t>17% (16.9%, 17.5%)</t>
-  </si>
-  <si>
-    <t>9.2% (8.5%, 11.1%)</t>
-  </si>
-  <si>
     <t>UTA</t>
   </si>
   <si>
-    <t>36% (20%, 44.5%)</t>
-  </si>
-  <si>
-    <t>15.8% (1.3%, 32.5%)</t>
-  </si>
-  <si>
-    <t>37.1% (21.8%, 45.2%)</t>
-  </si>
-  <si>
-    <t>35.2% (20.2%, 42.9%)</t>
-  </si>
-  <si>
-    <t>34.2% (14.8%, 43.9%)</t>
-  </si>
-  <si>
-    <t>29.6% (13.6%, 38.7%)</t>
-  </si>
-  <si>
-    <t>27.3% (6.6%, 39.6%)</t>
-  </si>
-  <si>
-    <t>34.4% (13.7%, 43.7%)</t>
-  </si>
-  <si>
-    <t>10.3% (0.4%, 20.9%)</t>
-  </si>
-  <si>
-    <t>2.6% (0%, 10.8%)</t>
-  </si>
-  <si>
-    <t>24.5% (11.2%, 35.8%)</t>
-  </si>
-  <si>
-    <t>22.7% (2.6%, 36.4%)</t>
-  </si>
-  <si>
     <t>UVA</t>
   </si>
   <si>
-    <t>22.4% (18.6%, 25.4%)</t>
-  </si>
-  <si>
-    <t>17.4% (7.8%, 24.2%)</t>
-  </si>
-  <si>
-    <t>22.2% (17.6%, 25.4%)</t>
-  </si>
-  <si>
-    <t>21.1% (18.2%, 23.2%)</t>
-  </si>
-  <si>
-    <t>22.2% (18.6%, 25%)</t>
-  </si>
-  <si>
-    <t>18.8% (16.7%, 20.5%)</t>
-  </si>
-  <si>
-    <t>21.5% (18.5%, 22.7%)</t>
-  </si>
-  <si>
-    <t>10.1% (5.3%, 15.1%)</t>
-  </si>
-  <si>
-    <t>6.3% (1.6%, 11.3%)</t>
-  </si>
-  <si>
-    <t>12.7% (6.8%, 18.2%)</t>
-  </si>
-  <si>
-    <t>8.3% (1.6%, 15.4%)</t>
-  </si>
-  <si>
     <t>IMP</t>
   </si>
   <si>
-    <t>24.7% (23.6%, 25.6%)</t>
-  </si>
-  <si>
-    <t>19.4% (15.8%, 23.2%)</t>
-  </si>
-  <si>
-    <t>24.6% (23.5%, 25.6%)</t>
-  </si>
-  <si>
-    <t>23.4% (22.2%, 24.7%)</t>
-  </si>
-  <si>
-    <t>13.8% (8.4%, 17.7%)</t>
-  </si>
-  <si>
-    <t>17.3% (16%, 18.3%)</t>
-  </si>
-  <si>
-    <t>20.6% (18.9%, 21.9%)</t>
-  </si>
-  <si>
-    <t>24% (23%, 24.9%)</t>
-  </si>
-  <si>
-    <t>6.9% (3.9%, 11.8%)</t>
-  </si>
-  <si>
-    <t>1.5% (0.2%, 6.3%)</t>
-  </si>
-  <si>
-    <t>12.5% (9.3%, 15.6%)</t>
-  </si>
-  <si>
-    <t>6.4% (1.1%, 14.3%)</t>
-  </si>
-  <si>
     <t>COL2</t>
   </si>
   <si>
-    <t>27.1% (26%, 28%)</t>
-  </si>
-  <si>
-    <t>25.7% (23.3%, 27.4%)</t>
-  </si>
-  <si>
-    <t>23.9% (22.8%, 24.8%)</t>
-  </si>
-  <si>
-    <t>25.2% (24.2%, 26.1%)</t>
-  </si>
-  <si>
-    <t>22.7% (21.4%, 23.9%)</t>
-  </si>
-  <si>
-    <t>22.6% (21.3%, 23.8%)</t>
-  </si>
-  <si>
-    <t>26.4% (25.4%, 27.4%)</t>
-  </si>
-  <si>
-    <t>18.9% (16.3%, 21.2%)</t>
-  </si>
-  <si>
-    <t>13.9% (8.6%, 18.5%)</t>
-  </si>
-  <si>
-    <t>21.6% (20.2%, 22.9%)</t>
-  </si>
-  <si>
-    <t>21.1% (19.2%, 22.6%)</t>
-  </si>
-  <si>
     <t>ENS</t>
   </si>
   <si>
-    <t>26.6% (22.2%, 29.8%)</t>
-  </si>
-  <si>
-    <t>19.1% (13%, 25.4%)</t>
-  </si>
-  <si>
-    <t>26.8% (22.3%, 29.9%)</t>
-  </si>
-  <si>
-    <t>22.5% (18%, 25.9%)</t>
-  </si>
-  <si>
-    <t>19.4% (13.3%, 23.7%)</t>
-  </si>
-  <si>
-    <t>21.9% (17.6%, 24.9%)</t>
-  </si>
-  <si>
-    <t>22% (16.6%, 25.6%)</t>
-  </si>
-  <si>
-    <t>25.6% (20.3%, 28.9%)</t>
-  </si>
-  <si>
-    <t>11.3% (6.8%, 16.5%)</t>
-  </si>
-  <si>
-    <t>6.3% (2.9%, 11.2%)</t>
-  </si>
-  <si>
-    <t>18% (13.2%, 22.5%)</t>
-  </si>
-  <si>
-    <t>14.4% (7.8%, 20.6%)</t>
-  </si>
-  <si>
     <t>Total Percent Symptomatically Ill</t>
   </si>
   <si>
@@ -381,6 +95,27 @@
   </si>
   <si>
     <t>NEU3</t>
+  </si>
+  <si>
+    <t>27% (22%, 30%)</t>
+  </si>
+  <si>
+    <t>22% (19%, 25%)</t>
+  </si>
+  <si>
+    <t>36% (20%, 45%)</t>
+  </si>
+  <si>
+    <t>28% (27%, 28%)</t>
+  </si>
+  <si>
+    <t>25% (24%, 26%)</t>
+  </si>
+  <si>
+    <t>27% (26%, 28%)</t>
+  </si>
+  <si>
+    <t>22% (17%, 27%)</t>
   </si>
 </sst>
 </file>
@@ -1467,7 +1202,7 @@
   <dimension ref="B1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1481,7 +1216,7 @@
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B2" s="14" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
@@ -1496,111 +1231,111 @@
     <row r="4" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
-        <v>101</v>
+        <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>118</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B6" s="9" t="s">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>115</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B7" s="9" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B8" s="9" t="s">
-        <v>119</v>
+        <v>24</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B9" s="9" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>116</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B10" s="9" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1610,369 +1345,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L4" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" t="s">
-        <v>49</v>
-      </c>
-      <c r="N4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I5" t="s">
-        <v>58</v>
-      </c>
-      <c r="J5" t="s">
-        <v>52</v>
-      </c>
-      <c r="K5" t="s">
-        <v>59</v>
-      </c>
-      <c r="L5" t="s">
-        <v>60</v>
-      </c>
-      <c r="M5" t="s">
-        <v>61</v>
-      </c>
-      <c r="N5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G6" t="s">
-        <v>68</v>
-      </c>
-      <c r="H6" t="s">
-        <v>69</v>
-      </c>
-      <c r="I6" t="s">
-        <v>70</v>
-      </c>
-      <c r="J6" t="s">
-        <v>71</v>
-      </c>
-      <c r="K6" t="s">
-        <v>72</v>
-      </c>
-      <c r="L6" t="s">
-        <v>73</v>
-      </c>
-      <c r="M6" t="s">
-        <v>74</v>
-      </c>
-      <c r="N6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H7" t="s">
-        <v>81</v>
-      </c>
-      <c r="I7" t="s">
-        <v>82</v>
-      </c>
-      <c r="J7" t="s">
-        <v>83</v>
-      </c>
-      <c r="K7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L7" t="s">
-        <v>85</v>
-      </c>
-      <c r="M7" t="s">
-        <v>86</v>
-      </c>
-      <c r="N7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8" t="s">
-        <v>91</v>
-      </c>
-      <c r="F8" t="s">
-        <v>92</v>
-      </c>
-      <c r="G8" t="s">
-        <v>93</v>
-      </c>
-      <c r="H8" t="s">
-        <v>94</v>
-      </c>
-      <c r="I8" t="s">
-        <v>95</v>
-      </c>
-      <c r="J8" t="s">
-        <v>96</v>
-      </c>
-      <c r="K8" t="s">
-        <v>97</v>
-      </c>
-      <c r="L8" t="s">
-        <v>98</v>
-      </c>
-      <c r="M8" t="s">
-        <v>99</v>
-      </c>
-      <c r="N8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>